--- a/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_11_27\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DC9EC8C-D910-4EB3-9752-570DF3727DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6CAC9D6-4426-4C5C-840A-2136D01154F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1CA7FAB-79DD-4651-BFFB-EDB9AAACA37B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>SCROLL_NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>SCROLL_INVEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCROLL_OPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCROLL_OPTION_DROPBOX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -108,7 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,15 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E2575C-B436-452A-B46D-AC8945CA1A5E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="3" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -490,6 +498,28 @@
         <v>-170.41561899999999</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-310.29153400000001</v>
+      </c>
+      <c r="C4">
+        <v>-112.355583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_11_27\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6CAC9D6-4426-4C5C-840A-2136D01154F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A543027-1291-4D2E-9F75-3B189FD651EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1CA7FAB-79DD-4651-BFFB-EDB9AAACA37B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SCROLL_NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>SCROLL_OPTION_DROPBOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCROLL_SHOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCROLL_CHEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E2575C-B436-452A-B46D-AC8945CA1A5E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -520,6 +528,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-389.91922</v>
+      </c>
+      <c r="C6">
+        <v>-184.66778600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A543027-1291-4D2E-9F75-3B189FD651EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EA32A72-9564-4362-B113-73398D42DCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1CA7FAB-79DD-4651-BFFB-EDB9AAACA37B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SCROLL_NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,9 @@
   <si>
     <t>SCROLL_CHEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCROLL_TELEPOT</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E2575C-B436-452A-B46D-AC8945CA1A5E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,6 +553,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EA32A72-9564-4362-B113-73398D42DCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E0C17906-5B2C-48C8-875F-BB529E6FEDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1CA7FAB-79DD-4651-BFFB-EDB9AAACA37B}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -558,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-21.470396000000001</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-167.37728899999999</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E0C17906-5B2C-48C8-875F-BB529E6FEDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{595087C8-EC93-4430-8712-980FFE5D2830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1CA7FAB-79DD-4651-BFFB-EDB9AAACA37B}"/>
+    <workbookView xWindow="31065" yWindow="1695" windowWidth="17730" windowHeight="11385" xr2:uid="{F1CA7FAB-79DD-4651-BFFB-EDB9AAACA37B}"/>
   </bookViews>
   <sheets>
     <sheet name="Scroll_Adjust_Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SCROLL_NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,11 +70,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCROLL_CHEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCROLL_TELEPOT</t>
+  </si>
+  <si>
+    <t>SCROLL_CHEST_INVEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCROLL_CHEST_DEST</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E2575C-B436-452A-B46D-AC8945CA1A5E}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,7 +547,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -555,13 +558,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>-21.470396000000001</v>
       </c>
       <c r="C8">
         <v>-167.37728899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{595087C8-EC93-4430-8712-980FFE5D2830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{98E82BA0-37D4-40F7-AB4F-FF7B0E4883AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31065" yWindow="1695" windowWidth="17730" windowHeight="11385" xr2:uid="{F1CA7FAB-79DD-4651-BFFB-EDB9AAACA37B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1CA7FAB-79DD-4651-BFFB-EDB9AAACA37B}"/>
   </bookViews>
   <sheets>
     <sheet name="Scroll_Adjust_Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SCROLL_NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>SCROLL_CHEST_DEST</t>
+  </si>
+  <si>
+    <t>SCROLL_ACHIEVMENT</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E2575C-B436-452A-B46D-AC8945CA1A5E}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -578,6 +581,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>-1732.23145</v>
+      </c>
+      <c r="C10">
+        <v>-256.73635899999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{98E82BA0-37D4-40F7-AB4F-FF7B0E4883AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C03CC8-686C-4993-8517-3774C6509F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1CA7FAB-79DD-4651-BFFB-EDB9AAACA37B}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-445.83377100000001</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-512.05835000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -575,10 +575,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-445.52941900000002</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-1197.50269</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">

--- a/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Scroll_Adjust_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C03CC8-686C-4993-8517-3774C6509F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78F1B40-67D9-4C87-B37F-8485A9DA0196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1CA7FAB-79DD-4651-BFFB-EDB9AAACA37B}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
